--- a/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/history_matching_config.xlsx
+++ b/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/history_matching_config.xlsx
@@ -8045,10 +8045,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -8099,10 +8099,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -8117,10 +8117,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -8135,10 +8135,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -8153,10 +8153,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -8225,10 +8225,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
